--- a/static/xls/ship-delivery.xlsx
+++ b/static/xls/ship-delivery.xlsx
@@ -20,12 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Port</t>
   </si>
   <si>
-    <t xml:space="preserve">Cost</t>
+    <t xml:space="preserve">Odessa Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odessa Moto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klaypeda Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klaypeda Moto</t>
   </si>
   <si>
     <t xml:space="preserve">Savannah, GA</t>
@@ -56,6 +65,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -268,16 +278,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -287,45 +300,99 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>800</v>
       </c>
+      <c r="C2" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>675</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>800</v>
       </c>
+      <c r="C3" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>650</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>975</v>
       </c>
+      <c r="C4" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>700</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>975</v>
       </c>
+      <c r="C5" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>950</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>975</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
